--- a/biology/Médecine/Ancien_hôpital_Félix-Guyon/Ancien_hôpital_Félix-Guyon.xlsx
+++ b/biology/Médecine/Ancien_hôpital_Félix-Guyon/Ancien_hôpital_Félix-Guyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ancien_h%C3%B4pital_F%C3%A9lix-Guyon</t>
+          <t>Ancien_hôpital_Félix-Guyon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancien hôpital Félix-Guyon est un ancien hôpital de l'île de La Réunion, département et région d'outre-mer français dans le sud-ouest de l'océan Indien. Situé à Saint-Denis le long d'une rue reliant le centre-ville à Bellepierre, il constituait le principal établissement sanitaire de la ville jusqu'à l'ouverture du centre hospitalier Félix-Guyon en 1957. Il est inscrit en totalité à l'inventaire supplémentaire des Monuments historiques depuis le 14 août 2000[1],[2]. Seul son pavillon principal et son porche l'étaient auparavant, depuis un arrêté du 4 juillet 1989 qui a été annulé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancien hôpital Félix-Guyon est un ancien hôpital de l'île de La Réunion, département et région d'outre-mer français dans le sud-ouest de l'océan Indien. Situé à Saint-Denis le long d'une rue reliant le centre-ville à Bellepierre, il constituait le principal établissement sanitaire de la ville jusqu'à l'ouverture du centre hospitalier Félix-Guyon en 1957. Il est inscrit en totalité à l'inventaire supplémentaire des Monuments historiques depuis le 14 août 2000,. Seul son pavillon principal et son porche l'étaient auparavant, depuis un arrêté du 4 juillet 1989 qui a été annulé.
 </t>
         </is>
       </c>
